--- a/public/modeloPlanilha2025.xlsx
+++ b/public/modeloPlanilha2025.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jessy\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D334D84-870C-4F51-8233-2E54106AA260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Relatório de entrega editável" sheetId="1" r:id="rId4"/>
+    <sheet name="Relatório de entrega editável" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>RELATÓRIO DE ENTREGA DE TAREFAS - XL GINCANA CULTURAL DE SÃO JERÔNIMO - 2025</t>
   </si>
@@ -64,23 +73,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -90,13 +86,13 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -107,7 +103,7 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -647,175 +643,131 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="59">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -825,25 +777,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffd8d8d8"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFD8D8D8"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -859,15 +871,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image4.png" descr="image4.png"/>
+        <xdr:cNvPr id="2" name="image4.png" descr="image4.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1">
-          <a:extLst/>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -904,15 +920,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="image5.png" descr="image5.png"/>
+        <xdr:cNvPr id="3" name="image5.png" descr="image5.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2">
-          <a:extLst/>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -938,7 +958,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1140,7 +1160,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1158,7 +1178,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1187,7 +1207,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1212,7 +1232,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1237,7 +1257,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1262,7 +1282,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1287,7 +1307,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1312,7 +1332,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1337,7 +1357,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1362,7 +1382,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1387,7 +1407,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1400,9 +1420,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1419,7 +1445,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1437,7 +1463,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1462,7 +1488,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1487,7 +1513,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1512,7 +1538,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1537,7 +1563,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1562,7 +1588,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1587,7 +1613,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1612,7 +1638,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1637,7 +1663,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1662,7 +1688,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1675,9 +1701,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1691,7 +1723,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1709,7 +1741,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1738,7 +1770,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1763,7 +1795,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1788,7 +1820,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1813,7 +1845,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1838,7 +1870,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1863,7 +1895,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1888,7 +1920,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1913,7 +1945,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1938,7 +1970,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1951,885 +1983,1971 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L121"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
+      <selection activeCell="U105" sqref="U105"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.67188" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.35156" style="1" customWidth="1"/>
-    <col min="6" max="6" width="1.35156" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6719" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.67188" style="1" customWidth="1"/>
-    <col min="9" max="9" width="3.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="1.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="20" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.67188" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.1719" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="14.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="4"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" ht="14.4" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" ht="14.4" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" ht="8" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" ht="14.4" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" ht="10.5" customHeight="1" hidden="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-    </row>
-    <row r="8" ht="30.75" customHeight="1">
-      <c r="A8" t="s" s="15">
+    <row r="1" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="27"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="39"/>
+    </row>
+    <row r="3" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="39"/>
+    </row>
+    <row r="4" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="39"/>
+    </row>
+    <row r="5" spans="1:12" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="39"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="30"/>
+    </row>
+    <row r="7" spans="1:12" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="40"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="13"/>
-    </row>
-    <row r="9" ht="30.75" customHeight="1">
-      <c r="A9" t="s" s="16">
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="42"/>
+    </row>
+    <row r="9" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="13"/>
-      <c r="D9" t="s" s="15">
+      <c r="B9" s="44"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
-      <c r="J9" t="s" s="20">
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="13"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="21">
+      <c r="K9" s="44"/>
+      <c r="L9" s="42"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="22"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="10"/>
-    </row>
-    <row r="12" ht="8" customHeight="1" hidden="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-    </row>
-    <row r="13" ht="45.75" customHeight="1">
-      <c r="A13" t="s" s="24">
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="46"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="30"/>
+    </row>
+    <row r="12" spans="1:12" ht="8.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B13" t="s" s="25">
+      <c r="B13" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" t="s" s="25">
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="13"/>
-      <c r="K13" t="s" s="25">
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="L13" s="13"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="10"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="26"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="10"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="29"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="10"/>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="29"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="10"/>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="26"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="29"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="10"/>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="26"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="29"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="10"/>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="26"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="4"/>
-    </row>
-    <row r="27" ht="21.75" customHeight="1">
-      <c r="A27" s="29"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="10"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="26"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="4"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="29"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="10"/>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="26"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="4"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="29"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="10"/>
-    </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="26"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="4"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="29"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="10"/>
-    </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="26"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="4"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="29"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="10"/>
-    </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="26"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="4"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="29"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="10"/>
-    </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" s="26"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="4"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="29"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="10"/>
-    </row>
-    <row r="40" ht="15" customHeight="1">
-      <c r="A40" s="26"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="4"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="29"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="10"/>
-    </row>
-    <row r="42" ht="15" customHeight="1">
-      <c r="A42" s="26"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="4"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="29"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="10"/>
-    </row>
-    <row r="44" ht="15" customHeight="1">
-      <c r="A44" s="26"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="4"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="29"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="10"/>
-    </row>
-    <row r="46" ht="15" customHeight="1">
-      <c r="A46" s="26"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="4"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="29"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="10"/>
-    </row>
-    <row r="48" ht="15" customHeight="1">
-      <c r="A48" s="26"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="4"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="29"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="10"/>
-    </row>
-    <row r="50" ht="15" customHeight="1">
-      <c r="A50" s="26"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="4"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="31"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="34"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" t="s" s="35">
+      <c r="L13" s="42"/>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="27"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="30"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="27"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="30"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="27"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="30"/>
+    </row>
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="27"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="30"/>
+    </row>
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="27"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="30"/>
+    </row>
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="27"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="30"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="27"/>
+    </row>
+    <row r="27" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="24"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="30"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="27"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="30"/>
+    </row>
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="27"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="24"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="30"/>
+    </row>
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="27"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="24"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="30"/>
+    </row>
+    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="27"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="24"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="30"/>
+    </row>
+    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="23"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="27"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="30"/>
+    </row>
+    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="23"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="27"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="24"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="30"/>
+    </row>
+    <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="27"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="24"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="30"/>
+    </row>
+    <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="23"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="27"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="24"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="30"/>
+    </row>
+    <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="23"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="27"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="24"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="30"/>
+    </row>
+    <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="23"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="27"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="24"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="30"/>
+    </row>
+    <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="23"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="27"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="24"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="30"/>
+    </row>
+    <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="23"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="27"/>
+    </row>
+    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="24"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="30"/>
+    </row>
+    <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="23"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="27"/>
+    </row>
+    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="24"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="30"/>
+    </row>
+    <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="23"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="27"/>
+    </row>
+    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="24"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="30"/>
+    </row>
+    <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="23"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="27"/>
+    </row>
+    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="24"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="30"/>
+    </row>
+    <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="23"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="27"/>
+    </row>
+    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="24"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="30"/>
+    </row>
+    <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="23"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="27"/>
+    </row>
+    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="24"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="30"/>
+    </row>
+    <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="23"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="27"/>
+    </row>
+    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="24"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="30"/>
+    </row>
+    <row r="64" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="23"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="27"/>
+    </row>
+    <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="24"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="30"/>
+    </row>
+    <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="23"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="27"/>
+    </row>
+    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="24"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="30"/>
+    </row>
+    <row r="68" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="23"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="31"/>
+      <c r="L68" s="27"/>
+    </row>
+    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="24"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="30"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="30"/>
+    </row>
+    <row r="70" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="23"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="31"/>
+      <c r="L70" s="27"/>
+    </row>
+    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="24"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="30"/>
+    </row>
+    <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="23"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="27"/>
+      <c r="K72" s="31"/>
+      <c r="L72" s="27"/>
+    </row>
+    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="24"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="30"/>
+    </row>
+    <row r="74" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="23"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="31"/>
+      <c r="L74" s="27"/>
+    </row>
+    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="24"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="30"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="30"/>
+    </row>
+    <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="23"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="31"/>
+      <c r="L76" s="27"/>
+    </row>
+    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="24"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="30"/>
+    </row>
+    <row r="78" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="23"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="27"/>
+      <c r="K78" s="31"/>
+      <c r="L78" s="27"/>
+    </row>
+    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="24"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="28"/>
+      <c r="L79" s="30"/>
+    </row>
+    <row r="80" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="23"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="26"/>
+      <c r="J80" s="27"/>
+      <c r="K80" s="31"/>
+      <c r="L80" s="27"/>
+    </row>
+    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="24"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="28"/>
+      <c r="L81" s="30"/>
+    </row>
+    <row r="82" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="23"/>
+      <c r="B82" s="47"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26"/>
+      <c r="J82" s="27"/>
+      <c r="K82" s="31"/>
+      <c r="L82" s="27"/>
+    </row>
+    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="24"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="29"/>
+      <c r="J83" s="30"/>
+      <c r="K83" s="28"/>
+      <c r="L83" s="30"/>
+    </row>
+    <row r="84" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="23"/>
+      <c r="B84" s="47"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="26"/>
+      <c r="J84" s="27"/>
+      <c r="K84" s="31"/>
+      <c r="L84" s="27"/>
+    </row>
+    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="24"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="30"/>
+      <c r="K85" s="28"/>
+      <c r="L85" s="30"/>
+    </row>
+    <row r="86" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="23"/>
+      <c r="B86" s="47"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="26"/>
+      <c r="I86" s="26"/>
+      <c r="J86" s="27"/>
+      <c r="K86" s="31"/>
+      <c r="L86" s="27"/>
+    </row>
+    <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="24"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="29"/>
+      <c r="J87" s="30"/>
+      <c r="K87" s="28"/>
+      <c r="L87" s="30"/>
+    </row>
+    <row r="88" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="23"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="26"/>
+      <c r="J88" s="27"/>
+      <c r="K88" s="31"/>
+      <c r="L88" s="27"/>
+    </row>
+    <row r="89" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="24"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="30"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="29"/>
+      <c r="I89" s="29"/>
+      <c r="J89" s="30"/>
+      <c r="K89" s="28"/>
+      <c r="L89" s="30"/>
+    </row>
+    <row r="90" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="23"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="26"/>
+      <c r="J90" s="27"/>
+      <c r="K90" s="31"/>
+      <c r="L90" s="27"/>
+    </row>
+    <row r="91" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="24"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="30"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="29"/>
+      <c r="J91" s="30"/>
+      <c r="K91" s="28"/>
+      <c r="L91" s="30"/>
+    </row>
+    <row r="92" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="23"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="26"/>
+      <c r="J92" s="27"/>
+      <c r="K92" s="31"/>
+      <c r="L92" s="27"/>
+    </row>
+    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="24"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="29"/>
+      <c r="J93" s="30"/>
+      <c r="K93" s="28"/>
+      <c r="L93" s="30"/>
+    </row>
+    <row r="94" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="23"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="26"/>
+      <c r="J94" s="27"/>
+      <c r="K94" s="31"/>
+      <c r="L94" s="27"/>
+    </row>
+    <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="24"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="29"/>
+      <c r="J95" s="30"/>
+      <c r="K95" s="28"/>
+      <c r="L95" s="30"/>
+    </row>
+    <row r="96" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="23"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="26"/>
+      <c r="J96" s="27"/>
+      <c r="K96" s="31"/>
+      <c r="L96" s="27"/>
+    </row>
+    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="24"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="29"/>
+      <c r="I97" s="29"/>
+      <c r="J97" s="30"/>
+      <c r="K97" s="28"/>
+      <c r="L97" s="30"/>
+    </row>
+    <row r="98" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="23"/>
+      <c r="B98" s="47"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="26"/>
+      <c r="I98" s="26"/>
+      <c r="J98" s="27"/>
+      <c r="K98" s="31"/>
+      <c r="L98" s="27"/>
+    </row>
+    <row r="99" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="24"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="30"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="29"/>
+      <c r="I99" s="29"/>
+      <c r="J99" s="30"/>
+      <c r="K99" s="28"/>
+      <c r="L99" s="30"/>
+    </row>
+    <row r="100" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="23"/>
+      <c r="B100" s="47"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="26"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="27"/>
+      <c r="G100" s="25"/>
+      <c r="H100" s="26"/>
+      <c r="I100" s="26"/>
+      <c r="J100" s="27"/>
+      <c r="K100" s="31"/>
+      <c r="L100" s="27"/>
+    </row>
+    <row r="101" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="24"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="30"/>
+      <c r="G101" s="28"/>
+      <c r="H101" s="29"/>
+      <c r="I101" s="29"/>
+      <c r="J101" s="30"/>
+      <c r="K101" s="28"/>
+      <c r="L101" s="30"/>
+    </row>
+    <row r="102" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="23"/>
+      <c r="B102" s="47"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="26"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="26"/>
+      <c r="I102" s="26"/>
+      <c r="J102" s="27"/>
+      <c r="K102" s="31"/>
+      <c r="L102" s="27"/>
+    </row>
+    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="24"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="30"/>
+      <c r="G103" s="28"/>
+      <c r="H103" s="29"/>
+      <c r="I103" s="29"/>
+      <c r="J103" s="30"/>
+      <c r="K103" s="28"/>
+      <c r="L103" s="30"/>
+    </row>
+    <row r="104" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="23"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="26"/>
+      <c r="D104" s="26"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="26"/>
+      <c r="I104" s="26"/>
+      <c r="J104" s="27"/>
+      <c r="K104" s="31"/>
+      <c r="L104" s="27"/>
+    </row>
+    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="24"/>
+      <c r="B105" s="28"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="30"/>
+      <c r="G105" s="28"/>
+      <c r="H105" s="29"/>
+      <c r="I105" s="29"/>
+      <c r="J105" s="30"/>
+      <c r="K105" s="28"/>
+      <c r="L105" s="30"/>
+    </row>
+    <row r="106" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="23"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="26"/>
+      <c r="D106" s="26"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="25"/>
+      <c r="H106" s="26"/>
+      <c r="I106" s="26"/>
+      <c r="J106" s="27"/>
+      <c r="K106" s="31"/>
+      <c r="L106" s="27"/>
+    </row>
+    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="24"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="30"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="30"/>
+      <c r="K107" s="28"/>
+      <c r="L107" s="30"/>
+    </row>
+    <row r="108" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="23"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="26"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="26"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="25"/>
+      <c r="H108" s="26"/>
+      <c r="I108" s="26"/>
+      <c r="J108" s="27"/>
+      <c r="K108" s="31"/>
+      <c r="L108" s="27"/>
+    </row>
+    <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="24"/>
+      <c r="B109" s="28"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="30"/>
+      <c r="G109" s="28"/>
+      <c r="H109" s="29"/>
+      <c r="I109" s="29"/>
+      <c r="J109" s="30"/>
+      <c r="K109" s="28"/>
+      <c r="L109" s="30"/>
+    </row>
+    <row r="110" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="23"/>
+      <c r="B110" s="25"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="26"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="25"/>
+      <c r="H110" s="26"/>
+      <c r="I110" s="26"/>
+      <c r="J110" s="27"/>
+      <c r="K110" s="31"/>
+      <c r="L110" s="27"/>
+    </row>
+    <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="24"/>
+      <c r="B111" s="28"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="29"/>
+      <c r="F111" s="30"/>
+      <c r="G111" s="28"/>
+      <c r="H111" s="29"/>
+      <c r="I111" s="29"/>
+      <c r="J111" s="30"/>
+      <c r="K111" s="28"/>
+      <c r="L111" s="30"/>
+    </row>
+    <row r="112" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="23"/>
+      <c r="B112" s="25"/>
+      <c r="C112" s="26"/>
+      <c r="D112" s="26"/>
+      <c r="E112" s="26"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="26"/>
+      <c r="I112" s="26"/>
+      <c r="J112" s="27"/>
+      <c r="K112" s="31"/>
+      <c r="L112" s="27"/>
+    </row>
+    <row r="113" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="24"/>
+      <c r="B113" s="28"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="29"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="29"/>
+      <c r="I113" s="29"/>
+      <c r="J113" s="30"/>
+      <c r="K113" s="28"/>
+      <c r="L113" s="30"/>
+    </row>
+    <row r="114" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="23"/>
+      <c r="B114" s="25"/>
+      <c r="C114" s="26"/>
+      <c r="D114" s="26"/>
+      <c r="E114" s="26"/>
+      <c r="F114" s="27"/>
+      <c r="G114" s="25"/>
+      <c r="H114" s="26"/>
+      <c r="I114" s="26"/>
+      <c r="J114" s="27"/>
+      <c r="K114" s="31"/>
+      <c r="L114" s="27"/>
+    </row>
+    <row r="115" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="32"/>
+      <c r="B115" s="33"/>
+      <c r="C115" s="34"/>
+      <c r="D115" s="34"/>
+      <c r="E115" s="34"/>
+      <c r="F115" s="35"/>
+      <c r="G115" s="33"/>
+      <c r="H115" s="34"/>
+      <c r="I115" s="34"/>
+      <c r="J115" s="35"/>
+      <c r="K115" s="33"/>
+      <c r="L115" s="35"/>
+    </row>
+    <row r="116" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="38"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" t="s" s="39">
+      <c r="B116" s="13"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="13"/>
+      <c r="I116" s="13"/>
+      <c r="J116" s="13"/>
+      <c r="K116" s="14"/>
+      <c r="L116" s="15"/>
+    </row>
+    <row r="117" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="41"/>
-      <c r="K53" s="42"/>
-      <c r="L53" s="43"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" t="s" s="44">
+      <c r="B117" s="17"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="17"/>
+      <c r="I117" s="17"/>
+      <c r="J117" s="18"/>
+      <c r="K117" s="19"/>
+      <c r="L117" s="20"/>
+    </row>
+    <row r="118" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="45"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" t="s" s="46">
+      <c r="B118" s="26"/>
+      <c r="C118" s="26"/>
+      <c r="D118" s="26"/>
+      <c r="E118" s="26"/>
+      <c r="F118" s="26"/>
+      <c r="G118" s="26"/>
+      <c r="H118" s="26"/>
+      <c r="I118" s="26"/>
+      <c r="J118" s="26"/>
+      <c r="K118" s="26"/>
+      <c r="L118" s="53"/>
+    </row>
+    <row r="119" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="45"/>
-    </row>
-    <row r="56" ht="19.4" customHeight="1">
-      <c r="A56" t="s" s="47">
+      <c r="B119" s="29"/>
+      <c r="C119" s="29"/>
+      <c r="D119" s="29"/>
+      <c r="E119" s="29"/>
+      <c r="F119" s="29"/>
+      <c r="G119" s="29"/>
+      <c r="H119" s="29"/>
+      <c r="I119" s="29"/>
+      <c r="J119" s="29"/>
+      <c r="K119" s="38"/>
+      <c r="L119" s="53"/>
+    </row>
+    <row r="120" spans="1:12" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="13"/>
-      <c r="D56" t="s" s="48">
+      <c r="B120" s="41"/>
+      <c r="C120" s="42"/>
+      <c r="D120" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="13"/>
-      <c r="F56" t="s" s="49">
+      <c r="E120" s="42"/>
+      <c r="F120" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="45"/>
-    </row>
-    <row r="57" ht="27.75" customHeight="1">
-      <c r="A57" s="50"/>
-      <c r="B57" s="51"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="51"/>
-      <c r="J57" s="52"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="54"/>
+      <c r="G120" s="41"/>
+      <c r="H120" s="41"/>
+      <c r="I120" s="41"/>
+      <c r="J120" s="42"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="21"/>
+    </row>
+    <row r="121" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="58"/>
+      <c r="B121" s="51"/>
+      <c r="C121" s="50"/>
+      <c r="D121" s="49"/>
+      <c r="E121" s="50"/>
+      <c r="F121" s="49"/>
+      <c r="G121" s="51"/>
+      <c r="H121" s="51"/>
+      <c r="I121" s="51"/>
+      <c r="J121" s="50"/>
+      <c r="K121" s="11"/>
+      <c r="L121" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="94">
+  <mergeCells count="222">
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:F63"/>
+    <mergeCell ref="G62:J63"/>
+    <mergeCell ref="K62:L63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:F65"/>
+    <mergeCell ref="G64:J65"/>
+    <mergeCell ref="K64:L65"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:F59"/>
+    <mergeCell ref="G58:J59"/>
+    <mergeCell ref="K58:L59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:F61"/>
+    <mergeCell ref="G60:J61"/>
+    <mergeCell ref="K60:L61"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:F55"/>
+    <mergeCell ref="G54:J55"/>
+    <mergeCell ref="K54:L55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:F57"/>
+    <mergeCell ref="G56:J57"/>
+    <mergeCell ref="K56:L57"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:F51"/>
+    <mergeCell ref="G50:J51"/>
+    <mergeCell ref="K50:L51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:F53"/>
+    <mergeCell ref="G52:J53"/>
+    <mergeCell ref="K52:L53"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:F79"/>
+    <mergeCell ref="G78:J79"/>
+    <mergeCell ref="K78:L79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:F81"/>
+    <mergeCell ref="G80:J81"/>
+    <mergeCell ref="K80:L81"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:F75"/>
+    <mergeCell ref="G74:J75"/>
+    <mergeCell ref="K74:L75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:F77"/>
+    <mergeCell ref="G76:J77"/>
+    <mergeCell ref="K76:L77"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:F71"/>
+    <mergeCell ref="G70:J71"/>
+    <mergeCell ref="K70:L71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:F73"/>
+    <mergeCell ref="G72:J73"/>
+    <mergeCell ref="K72:L73"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:F67"/>
+    <mergeCell ref="G66:J67"/>
+    <mergeCell ref="K66:L67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:F69"/>
+    <mergeCell ref="G68:J69"/>
+    <mergeCell ref="K68:L69"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:F47"/>
+    <mergeCell ref="G46:J47"/>
+    <mergeCell ref="K46:L47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:F49"/>
+    <mergeCell ref="G48:J49"/>
+    <mergeCell ref="K48:L49"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:F43"/>
+    <mergeCell ref="G42:J43"/>
+    <mergeCell ref="K42:L43"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="B44:F45"/>
     <mergeCell ref="G44:J45"/>
     <mergeCell ref="K44:L45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="K46:L47"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:F51"/>
-    <mergeCell ref="B46:F47"/>
-    <mergeCell ref="G46:J47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:F49"/>
-    <mergeCell ref="G48:J49"/>
-    <mergeCell ref="K48:L49"/>
-    <mergeCell ref="K50:L51"/>
-    <mergeCell ref="G50:J51"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:F39"/>
+    <mergeCell ref="G38:J39"/>
+    <mergeCell ref="K38:L39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:F41"/>
+    <mergeCell ref="G40:J41"/>
+    <mergeCell ref="K40:L41"/>
+    <mergeCell ref="B34:F35"/>
+    <mergeCell ref="G34:J35"/>
+    <mergeCell ref="K34:L35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:F37"/>
+    <mergeCell ref="G36:J37"/>
+    <mergeCell ref="K36:L37"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:F95"/>
+    <mergeCell ref="G94:J95"/>
+    <mergeCell ref="K94:L95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="B96:F97"/>
+    <mergeCell ref="G96:J97"/>
+    <mergeCell ref="K96:L97"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:F91"/>
+    <mergeCell ref="G90:J91"/>
+    <mergeCell ref="K90:L91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:F93"/>
+    <mergeCell ref="G92:J93"/>
+    <mergeCell ref="K92:L93"/>
+    <mergeCell ref="K86:L87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:F89"/>
+    <mergeCell ref="G88:J89"/>
+    <mergeCell ref="K88:L89"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:F87"/>
+    <mergeCell ref="G86:J87"/>
+    <mergeCell ref="G22:J23"/>
+    <mergeCell ref="K22:L23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:F21"/>
+    <mergeCell ref="G20:J21"/>
+    <mergeCell ref="K20:L21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:F23"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="F121:J121"/>
+    <mergeCell ref="A118:L118"/>
+    <mergeCell ref="A119:L119"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="F120:J120"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:F105"/>
+    <mergeCell ref="G104:J105"/>
+    <mergeCell ref="K104:L105"/>
+    <mergeCell ref="K106:L107"/>
+    <mergeCell ref="B106:F107"/>
+    <mergeCell ref="G106:J107"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="G102:J103"/>
+    <mergeCell ref="K102:L103"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:F101"/>
+    <mergeCell ref="G100:J101"/>
+    <mergeCell ref="K100:L101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:F103"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:F33"/>
+    <mergeCell ref="G32:J33"/>
+    <mergeCell ref="K32:L33"/>
+    <mergeCell ref="B98:F99"/>
+    <mergeCell ref="G98:J99"/>
+    <mergeCell ref="K98:L99"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:F83"/>
+    <mergeCell ref="G82:J83"/>
+    <mergeCell ref="K82:L83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:F85"/>
+    <mergeCell ref="G84:J85"/>
+    <mergeCell ref="K84:L85"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:F29"/>
+    <mergeCell ref="G28:J29"/>
+    <mergeCell ref="K28:L29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:F31"/>
+    <mergeCell ref="G30:J31"/>
+    <mergeCell ref="K30:L31"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:F25"/>
+    <mergeCell ref="G24:J25"/>
+    <mergeCell ref="K24:L25"/>
+    <mergeCell ref="B26:F27"/>
+    <mergeCell ref="G26:J27"/>
+    <mergeCell ref="K26:L27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="K18:L19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:F15"/>
+    <mergeCell ref="G14:J15"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="K112:L113"/>
+    <mergeCell ref="K114:L115"/>
+    <mergeCell ref="G114:J115"/>
     <mergeCell ref="A1:L6"/>
     <mergeCell ref="A7:J7"/>
     <mergeCell ref="A8:L8"/>
@@ -2843,74 +3961,22 @@
     <mergeCell ref="K16:L17"/>
     <mergeCell ref="B18:F19"/>
     <mergeCell ref="G18:J19"/>
-    <mergeCell ref="K18:L19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:F15"/>
-    <mergeCell ref="G14:J15"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:F25"/>
-    <mergeCell ref="G24:J25"/>
-    <mergeCell ref="K24:L25"/>
-    <mergeCell ref="B26:F27"/>
-    <mergeCell ref="G26:J27"/>
-    <mergeCell ref="K26:L27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:F29"/>
-    <mergeCell ref="G28:J29"/>
-    <mergeCell ref="K28:L29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:F31"/>
-    <mergeCell ref="G30:J31"/>
-    <mergeCell ref="K30:L31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:F33"/>
-    <mergeCell ref="G32:J33"/>
-    <mergeCell ref="K32:L33"/>
-    <mergeCell ref="B34:F35"/>
-    <mergeCell ref="G34:J35"/>
-    <mergeCell ref="K34:L35"/>
-    <mergeCell ref="G38:J39"/>
-    <mergeCell ref="K38:L39"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:F37"/>
-    <mergeCell ref="G36:J37"/>
-    <mergeCell ref="K36:L37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:F39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:F41"/>
-    <mergeCell ref="G40:J41"/>
-    <mergeCell ref="K40:L41"/>
-    <mergeCell ref="K42:L43"/>
-    <mergeCell ref="B42:F43"/>
-    <mergeCell ref="G42:J43"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="A54:L54"/>
-    <mergeCell ref="A55:L55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="G22:J23"/>
-    <mergeCell ref="K22:L23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:F21"/>
-    <mergeCell ref="G20:J21"/>
-    <mergeCell ref="K20:L21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:F23"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:F115"/>
+    <mergeCell ref="B110:F111"/>
+    <mergeCell ref="G110:J111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:F113"/>
+    <mergeCell ref="G112:J113"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:F109"/>
+    <mergeCell ref="G108:J109"/>
+    <mergeCell ref="K108:L109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="K110:L111"/>
   </mergeCells>
-  <pageMargins left="0.629921" right="0.23622" top="0.748031" bottom="0.748031" header="0" footer="0"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="80" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.62992099999999995" right="0.23622000000000001" top="0.748031" bottom="0.748031" header="0" footer="0"/>
+  <pageSetup scale="80" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
